--- a/branches/draft/CodeSystem-cs-patient-communication-preferences.xlsx
+++ b/branches/draft/CodeSystem-cs-patient-communication-preferences.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:43:03+00:00</t>
+    <t>2022-02-25T20:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/draft/CodeSystem-cs-patient-communication-preferences.xlsx
+++ b/branches/draft/CodeSystem-cs-patient-communication-preferences.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:52:14+00:00</t>
+    <t>2022-02-25T20:59:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/draft/CodeSystem-cs-patient-communication-preferences.xlsx
+++ b/branches/draft/CodeSystem-cs-patient-communication-preferences.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:59:17+00:00</t>
+    <t>2022-02-25T21:00:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/draft/CodeSystem-cs-patient-communication-preferences.xlsx
+++ b/branches/draft/CodeSystem-cs-patient-communication-preferences.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:00:17+00:00</t>
+    <t>2022-02-25T21:34:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
